--- a/breaches1.xlsx
+++ b/breaches1.xlsx
@@ -760,201 +760,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2016-06-27</t>
+          <t>2016-10-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Whitepages</t>
+          <t>Adult FriendFinder (2016)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>whitepages.com</t>
+          <t>adultfriendfinder.com</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11657763</v>
+        <v>169746810</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-01-26</t>
+          <t>2017-07-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unverified Data Source</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>astoriacompany.com</t>
-        </is>
-      </c>
+          <t>B2B USA Businesses</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>11498146</v>
+        <v>105059554</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2018-07-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Genesis Market</t>
+          <t>ShareThis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>genesis.market</t>
+          <t>sharethis.com</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8000000</v>
+        <v>40960499</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2011-12-21</t>
+          <t>2011-12-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zhenai.com</t>
+          <t>Tianya</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>zhenai.com</t>
+          <t>tianya.cn</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5024908</v>
+        <v>29020808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2016-03-16</t>
+          <t>2021-01-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tuned Global</t>
+          <t>Oxfam</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tunedglobal.com</t>
+          <t>oxfam.org.au</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>985586</v>
+        <v>1834006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2017-05-11</t>
+          <t>2020-01-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Reincubate</t>
+          <t>HTC Mania</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>reincubate.com</t>
+          <t>htcmania.com</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>616146</v>
+        <v>1488089</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-10-10</t>
+          <t>2020-12-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hookers.nl</t>
+          <t>NetGalley</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hookers.nl</t>
+          <t>netgalley.com</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>290955</v>
+        <v>1436435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2018-08-25</t>
+          <t>2020-01-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Atlas Quantum</t>
+          <t>Bhinneka</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>atlasquantum.com</t>
+          <t>bhinneka.com</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>261463</v>
+        <v>1274340</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2018-12-29</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BannerBit</t>
+          <t>BlackBerry Fans</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>bannerbit.com</t>
+          <t>blackberryfans.org</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>213415</v>
+        <v>174168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-07-01</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planet Calypso</t>
+          <t>FaceUP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>planetcalypsoforum.com</t>
+          <t>faceup.dk</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>62261</v>
+        <v>87633</v>
       </c>
     </row>
   </sheetData>
